--- a/Vocabularies/USGS/usgs-wut.xlsx
+++ b/Vocabularies/USGS/usgs-wut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/Tech Framework and Common Tools/Glossary/Vocabularies/USGS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/USGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9468A0-8237-3B45-8037-378FE8C8BB82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD08652-0A84-C748-987C-6FBEDE7F5846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1180" windowWidth="29040" windowHeight="15840" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="1480" yWindow="6740" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Term</t>
   </si>
@@ -72,40 +72,10 @@
     <t>Water Quality</t>
   </si>
   <si>
-    <t>Water Data</t>
-  </si>
-  <si>
     <t>Water Use</t>
   </si>
   <si>
-    <t>Open Data</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
-    <t>Drinking Water</t>
-  </si>
-  <si>
-    <t>Ecology</t>
-  </si>
-  <si>
-    <t>Water Budgets</t>
-  </si>
-  <si>
     <t>Themes</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Cloud Services</t>
-  </si>
-  <si>
-    <t>Organizations and Public Agencies</t>
-  </si>
-  <si>
-    <t>Water Law</t>
   </si>
   <si>
     <t>Publishing Agency</t>
@@ -518,6 +488,21 @@
   </si>
   <si>
     <t>Standard Industrial Classification codes</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Water use</t>
+  </si>
+  <si>
+    <t>Legal and Regulatory</t>
+  </si>
+  <si>
+    <t>Environment and Ecology</t>
+  </si>
+  <si>
+    <t>Utilities (Water, Wastewater, Stormwater)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -931,526 +916,526 @@
     </row>
     <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1490,10 +1475,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1502,58 +1487,58 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1563,42 +1548,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabularies/USGS/usgs-wut.xlsx
+++ b/Vocabularies/USGS/usgs-wut.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/USGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD08652-0A84-C748-987C-6FBEDE7F5846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2BE99E-ECC6-8E47-AA23-C600BF1F0206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="6740" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="1480" yWindow="640" windowWidth="29040" windowHeight="20360" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabulary Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vocabulary!$A$1:$I$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
   <si>
     <t>Term</t>
   </si>
@@ -304,9 +307,6 @@
   </si>
   <si>
     <t>A transfer of water from one river basin to another. Interbasin transfers may be tracked or regulated for different levels of watersheds such as a hydrologic unit level or a set of basin delineations made by a regulatory authority.</t>
-  </si>
-  <si>
-    <t>Beneficial Use</t>
   </si>
   <si>
     <r>
@@ -502,7 +502,10 @@
     <t>Environment and Ecology</t>
   </si>
   <si>
-    <t>Utilities (Water, Wastewater, Stormwater)</t>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -875,20 +878,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
-  <dimension ref="A1:H41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +917,11 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -924,11 +931,8 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -938,11 +942,8 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -953,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -963,11 +964,8 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -978,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -989,7 +987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -999,11 +997,8 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1013,11 +1008,8 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,11 +1019,8 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1042,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1052,11 +1041,8 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1066,11 +1052,8 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1080,11 +1063,8 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1106,303 +1086,255 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="350" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="350" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="320" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="365" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="335" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="350" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="350" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="335" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -1412,33 +1344,37 @@
       <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I41" xr:uid="{AF1C450D-0238-B148-AA54-7689CD5B10C2}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1447,7 +1383,7 @@
           <x14:formula1>
             <xm:f>'Vocabulary Metadata'!$G$2:$G$100</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:H6138</xm:sqref>
+          <xm:sqref>D3:H6138 D2 F2:H2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1459,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1513,12 +1449,12 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1528,7 +1464,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1538,7 +1474,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1548,7 +1484,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
